--- a/vegresults/Herbicide_trial_metadata.xlsx
+++ b/vegresults/Herbicide_trial_metadata.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nancy\Documents\GitHub\Chatfield_restoration\vegresults\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D802440-1369-483B-BB39-B03AA4205357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="0" windowWidth="12015" windowHeight="3615"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -151,16 +152,16 @@
     <t>Surveyors</t>
   </si>
   <si>
-    <t>five timepoints - May 2018; August 20-24, 2018; June 3-7, 2019; August 26-30, 2019; July 6-13, 2020</t>
-  </si>
-  <si>
-    <t>2018, 2019 - N. Shackelford; 2020 - A. Miller</t>
+    <t>2018, 2019 - N. Shackelford; 2020 - A. Miller; 2021 - M. Stueber</t>
+  </si>
+  <si>
+    <t>six timepoints - May 2018; August 20-24, 2018; June 3-7, 2019; August 26-30, 2019; July 6-13, 2020; June 7-15, 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -544,11 +545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +602,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -614,7 +615,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -758,12 +759,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
